--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,61 +1247,61 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,31 +1337,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,20 +1436,50 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>22</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,61 +1247,61 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>6-13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6-13</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1337,31 +1337,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1397,21 +1397,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1450,36 +1450,6 @@
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>22</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
